--- a/medicine/Bioéthique/Dominique_Wolton/Dominique_Wolton.xlsx
+++ b/medicine/Bioéthique/Dominique_Wolton/Dominique_Wolton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique Wolton, né le 26 avril 1947 à Douala (Cameroun), est un sociologue français.
-Directeur de recherche au CNRS en sciences de la communication, il est spécialiste des médias, de l'espace public, de la communication politique, et des rapports entre sciences, techniques et société. Ses recherches contribuent à valoriser une conception de la communication qui privilégie l'homme et la démocratie plutôt que la technique et l'économie[1].  
+Directeur de recherche au CNRS en sciences de la communication, il est spécialiste des médias, de l'espace public, de la communication politique, et des rapports entre sciences, techniques et société. Ses recherches contribuent à valoriser une conception de la communication qui privilégie l'homme et la démocratie plutôt que la technique et l'économie.  
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licencié en droit et diplômé de l'Institut d’études politiques de Paris (1970)[2], docteur en sociologie, Dominique Wolton est directeur de recherche au CNRS. Il est l'auteur d'une trentaine d'ouvrages traduits en vingt langues, de plus d'une centaine d'articles, et d'émissions de télévision avec Raymond Aron et Jean-Marie Lustiger.
-Directeur du programme Science, Technique, Société du CNRS (1980-1985), puis du programme Communication (Neurosciences, sciences cognitives et sciences de l'homme et de la société) du CNRS (1985-2000), il a créé le laboratoire de Communication et Politique du CNRS (LCP) (1988-2000)[3] et le laboratoire Information, communication et enjeux scientifiques du CNRS (2000-2007), puis en 2007, l'Institut des sciences de la communication du CNRS (ISCC)[4], qu'il a dirigé jusqu'en 2014.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licencié en droit et diplômé de l'Institut d’études politiques de Paris (1970), docteur en sociologie, Dominique Wolton est directeur de recherche au CNRS. Il est l'auteur d'une trentaine d'ouvrages traduits en vingt langues, de plus d'une centaine d'articles, et d'émissions de télévision avec Raymond Aron et Jean-Marie Lustiger.
+Directeur du programme Science, Technique, Société du CNRS (1980-1985), puis du programme Communication (Neurosciences, sciences cognitives et sciences de l'homme et de la société) du CNRS (1985-2000), il a créé le laboratoire de Communication et Politique du CNRS (LCP) (1988-2000) et le laboratoire Information, communication et enjeux scientifiques du CNRS (2000-2007), puis en 2007, l'Institut des sciences de la communication du CNRS (ISCC), qu'il a dirigé jusqu'en 2014.
 Il a fondé en 1988 et dirige la revue internationale Hermès (CNRS Éditions), vouée à l'étude interdisciplinaire de la communication, dans ses rapports avec les individus, les techniques, les cultures, les sociétés. Il dirige également les collections « Les Essentiels d'Hermès » et « CNRS Communication » éditées par CNRS Éditions.
 </t>
         </is>
@@ -545,10 +559,12 @@
           <t>Domaines de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les recherches de Dominique Wolton explorent une dizaine de thèmes principaux : « l'individu,  la famille, les relations interpersonnelles,  le travail, la technique, les médias, l'opinion publique, l'espace public et la communication politique,  l'information et le journalisme, Internet et le numérique,  l'Europe,  la politique, la culture, l'anthropologie, la diversité culturelle et la mondialisation,  les langues romanes et les aires culturelles,  les rapports sciences-techniques-société, l'information, la communication et l'épistémologie de la connaissance[5]».
-Analyste des rapports entre culture, communication, société et politique,  il a beaucoup écrit sur les médias, la communication politique, l’Europe, Internet, et étudié les conséquences politiques et culturelles de la mondialisation de l’information et de la communication. Pour lui, l’information et la communication sont un des enjeux politiques majeurs du XXIe siècle et la cohabitation culturelle un impératif à construire comme condition de la 3e mondialisation[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les recherches de Dominique Wolton explorent une dizaine de thèmes principaux : « l'individu,  la famille, les relations interpersonnelles,  le travail, la technique, les médias, l'opinion publique, l'espace public et la communication politique,  l'information et le journalisme, Internet et le numérique,  l'Europe,  la politique, la culture, l'anthropologie, la diversité culturelle et la mondialisation,  les langues romanes et les aires culturelles,  les rapports sciences-techniques-société, l'information, la communication et l'épistémologie de la connaissance».
+Analyste des rapports entre culture, communication, société et politique,  il a beaucoup écrit sur les médias, la communication politique, l’Europe, Internet, et étudié les conséquences politiques et culturelles de la mondialisation de l’information et de la communication. Pour lui, l’information et la communication sont un des enjeux politiques majeurs du XXIe siècle et la cohabitation culturelle un impératif à construire comme condition de la 3e mondialisation.
 Dans son livre, « Informer n'est pas communiquer » publié en 2009 aux éditions CNRS, il popularise le terme incommunication.
 </t>
         </is>
@@ -578,12 +594,14 @@
           <t>Distinctions et participations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Engagé dans la société civile, Dominique Wolton participe à différentes instances de la recherche, de la francophonie et des médias. Membre du Conseil d'administration du Groupe France Télévisions, ancien membre du Conseil d'administration de l'Agence universitaire de la Francophonie (AUF) et du Conseil scientifique de l'Office parlementaire d'évaluation des choix scientifiques et technologiques (OPECST), il préside le Conseil de l'Éthique publicitaire (CEP) de l'Autorité de régulation professionnelle de la publicité (ARPP).
 Il a été membre du Conseil scientifique du CNRS (2005-2010), de la Commission nationale française pour l'Unesco (2004-2010), du Haut Conseil de la Francophonie (2004-2006), du Comité d'éthique du CNRS (Comets) (1993-2005) et du Comité consultatif national d'éthique pour les sciences de la vie et de la santé (CCNE) (1997-2005).
 Enfin, il est membre de l'Académie des technologies et membre de l'Académie des sciences de l'Outremer au fauteuil de Paul Chauvet (06/01/2012). Il a reçu en 2000 le Prix Georges-Pompidou et le Prix du livre France Télévisions.
-Le 22 mars 2012, il se porte candidat à l'Académie française au fauteuil de Jean Dutourd. Il n'obtient que cinq voix lors de l'élection du 10 mai 2012 : aucun candidat n'est retenu dans cette élection blanche[7].
+Le 22 mars 2012, il se porte candidat à l'Académie française au fauteuil de Jean Dutourd. Il n'obtient que cinq voix lors de l'élection du 10 mai 2012 : aucun candidat n'est retenu dans cette élection blanche.
 </t>
         </is>
       </c>
@@ -612,10 +630,12 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Commandeur de l'ordre national du Mérite, le 30 novembre 2019, par le Ministère de l'Enseignement supérieur, de la Recherche et de l'Innovation[8] ; il est directement fait officier le 14 novembre 2008[9].
- Officier de la Légion d'honneur Il est fait chevalier le 11 avril 2001[10], puis est promu officier le 12 juillet 2013[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de l'ordre national du Mérite, le 30 novembre 2019, par le Ministère de l'Enseignement supérieur, de la Recherche et de l'Innovation ; il est directement fait officier le 14 novembre 2008.
+ Officier de la Légion d'honneur Il est fait chevalier le 11 avril 2001, puis est promu officier le 12 juillet 2013.
  Officier de l'ordre des Palmes académiques
  Officier de l'ordre des Arts et des Lettres</t>
         </is>
@@ -645,7 +665,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dominique Wolton, Le nouvel ordre sexuel, Paris, Le Seuil, 1974.
 Dominique Wolton (en collaboration avec la CFDT), Les dégâts du progrès. Les travailleurs face au changement technique, Paris, Le Seuil, 1977.
